--- a/excel prac 06.xlsx
+++ b/excel prac 06.xlsx
@@ -16,9 +16,12 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="StudentsPerformance" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$4:$L$17</definedName>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="205">
   <si>
     <t>Amy, Ajohn</t>
   </si>
@@ -502,6 +505,159 @@
   <si>
     <t>&lt;- rank() of Total Score to rank each student</t>
   </si>
+  <si>
+    <t>&lt;- Find&amp;Select Constants</t>
+  </si>
+  <si>
+    <t>&lt;- Find&amp;Select Formula</t>
+  </si>
+  <si>
+    <t>&lt;- Find&amp;Select, Go To Special, Blank</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>&lt;- replaced 9999 with "   " and then computed average</t>
+  </si>
+  <si>
+    <t>Find&amp; Select and Replace</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>&lt;- removed duplicates</t>
+  </si>
+  <si>
+    <t>Duplicates found in conditional formatting</t>
+  </si>
+  <si>
+    <t>Identify and remove duplicates</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Era</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>&lt;- consolidated (Data, consolidate) 3 tables by dragging ranges and adding</t>
+  </si>
+  <si>
+    <t>8:00-9:00am</t>
+  </si>
+  <si>
+    <t>9:00-10:00am</t>
+  </si>
+  <si>
+    <t>10:00-11:00am</t>
+  </si>
+  <si>
+    <t>11:00-12:00pm</t>
+  </si>
+  <si>
+    <t>12:00-1:00pm</t>
+  </si>
+  <si>
+    <t>1:00-2:00pm</t>
+  </si>
+  <si>
+    <t>2:00-3:00pm</t>
+  </si>
+  <si>
+    <t>3:00-4:00pm</t>
+  </si>
+  <si>
+    <t>4:00-5:00pm</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thurs</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>&lt;-Max()</t>
+  </si>
+  <si>
+    <t>&lt;- Find&amp;Select 4</t>
+  </si>
+  <si>
+    <t>Ex2</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Ex1</t>
+  </si>
+  <si>
+    <t>Consolidate data using consolidate (Data tab, and then dragging ranges of different tables)</t>
+  </si>
 </sst>
 </file>
 
@@ -510,7 +666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +704,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +729,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -588,6 +757,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -604,8 +779,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -688,12 +869,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -714,27 +910,44 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1286,15 +1499,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B19:G30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B19:G30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" tableBorderDxfId="17">
   <autoFilter ref="B19:G30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Seller" dataDxfId="15"/>
-    <tableColumn id="2" name="Buyer" dataDxfId="14"/>
-    <tableColumn id="3" name="Cookie" dataDxfId="13"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="12"/>
-    <tableColumn id="5" name="Price" dataDxfId="11"/>
-    <tableColumn id="6" name="Sales" dataDxfId="10">
+    <tableColumn id="1" name="Seller" dataDxfId="16"/>
+    <tableColumn id="2" name="Buyer" dataDxfId="15"/>
+    <tableColumn id="3" name="Cookie" dataDxfId="14"/>
+    <tableColumn id="4" name="Quantity" dataDxfId="13"/>
+    <tableColumn id="5" name="Price" dataDxfId="12"/>
+    <tableColumn id="6" name="Sales" dataDxfId="11">
       <calculatedColumnFormula>E20*F20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1306,16 +1519,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B6:G17" totalsRowCount="1">
   <autoFilter ref="B6:G16"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="4"/>
     <tableColumn id="2" name="Employee" totalsRowFunction="count"/>
     <tableColumn id="3" name="Rate" totalsRowFunction="average">
       <calculatedColumnFormula>VLOOKUP(C7, rate, 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Hours" totalsRowFunction="sum" dataDxfId="4"/>
-    <tableColumn id="5" name="Overtime" dataDxfId="7" totalsRowDxfId="2">
+    <tableColumn id="4" name="Hours" totalsRowFunction="sum" dataDxfId="5"/>
+    <tableColumn id="5" name="Overtime" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(E7&gt;40, "Y", "--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Pay" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="6" name="Pay" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(F7="Y", 1.5*(E7-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D7*E7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1590,7 +1803,7 @@
   <dimension ref="A4:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,7 +2594,7 @@
   <dimension ref="B2:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,16 +2605,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -2430,34 +2643,34 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
+      <c r="B7" s="25">
         <v>43585</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20">
         <f>VLOOKUP(C7, rate, 2, FALSE)</f>
         <v>29</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <v>41</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="20" t="str">
         <f>IF(E7&gt;40, "Y", "--")</f>
         <v>Y</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="20">
         <f>IF(F7="Y", 1.5*(E7-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D7*E7)</f>
         <v>1203.5</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="6" t="s">
         <v>60</v>
       </c>
@@ -2479,15 +2692,15 @@
       <c r="E8" s="6">
         <v>31</v>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="21" t="str">
         <f t="shared" ref="F8:F16" si="0">IF(E8&gt;40, "Y", "--")</f>
         <v>--</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="20">
         <f>IF(F8="Y", 1.5*(E8-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D8*E8)</f>
         <v>806</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="20" t="s">
         <v>69</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -2511,11 +2724,11 @@
       <c r="E9" s="6">
         <v>20</v>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="20">
         <f>IF(F9="Y", 1.5*(E9-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D9*E9)</f>
         <v>520</v>
       </c>
@@ -2540,11 +2753,11 @@
       <c r="E10" s="6">
         <v>22</v>
       </c>
-      <c r="F10" s="20" t="str">
+      <c r="F10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="20">
         <f>IF(F10="Y", 1.5*(E10-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D10*E10)</f>
         <v>462</v>
       </c>
@@ -2554,14 +2767,14 @@
       <c r="O10" s="15">
         <v>30</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
@@ -2577,11 +2790,11 @@
       <c r="E11" s="6">
         <v>26</v>
       </c>
-      <c r="F11" s="20" t="str">
+      <c r="F11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="20">
         <f>IF(F11="Y", 1.5*(E11-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D11*E11)</f>
         <v>780</v>
       </c>
@@ -2606,11 +2819,11 @@
       <c r="E12" s="6">
         <v>43</v>
       </c>
-      <c r="F12" s="20" t="str">
+      <c r="F12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="20">
         <f>IF(F12="Y", 1.5*(E12-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D12*E12)</f>
         <v>1068</v>
       </c>
@@ -2635,11 +2848,11 @@
       <c r="E13" s="6">
         <v>44</v>
       </c>
-      <c r="F13" s="20" t="str">
+      <c r="F13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="20">
         <f>IF(F13="Y", 1.5*(E13-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D13*E13)</f>
         <v>1472</v>
       </c>
@@ -2664,11 +2877,11 @@
       <c r="E14" s="6">
         <v>36</v>
       </c>
-      <c r="F14" s="20" t="str">
+      <c r="F14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="20">
         <f>IF(F14="Y", 1.5*(E14-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D14*E14)</f>
         <v>900</v>
       </c>
@@ -2693,11 +2906,11 @@
       <c r="E15" s="6">
         <v>39</v>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>--</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="20">
         <f>IF(F15="Y", 1.5*(E15-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D15*E15)</f>
         <v>1092</v>
       </c>
@@ -2709,7 +2922,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>43570</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2722,11 +2935,11 @@
       <c r="E16" s="6">
         <v>43</v>
       </c>
-      <c r="F16" s="22" t="str">
+      <c r="F16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <f>IF(F16="Y", 1.5*(E16-40)*Table5[[#This Row],[Rate]]+1*40*Table5[[#This Row],[Rate]], D16*E16)</f>
         <v>890</v>
       </c>
@@ -2747,8 +2960,8 @@
         <f>SUBTOTAL(109,Table5[Hours])</f>
         <v>345</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
         <f>SUBTOTAL(109,Table5[Pay])</f>
         <v>9193.5</v>
       </c>
@@ -2794,7 +3007,7 @@
       <c r="D3" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>105</v>
       </c>
       <c r="K3" t="s">
@@ -2840,14 +3053,14 @@
       <c r="N4">
         <v>95</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2860,7 +3073,7 @@
       <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>91</v>
       </c>
       <c r="G5" t="s">
@@ -2891,10 +3104,10 @@
       <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="27" t="s">
         <v>92</v>
       </c>
       <c r="K6">
@@ -2953,7 +3166,7 @@
       <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>94</v>
       </c>
       <c r="G8" t="s">
@@ -2984,7 +3197,7 @@
       <c r="D9" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="30" t="s">
         <v>104</v>
       </c>
       <c r="G9" t="s">
@@ -3018,7 +3231,7 @@
       <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K10">
@@ -3049,7 +3262,7 @@
       <c r="F11" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="28" t="s">
         <v>98</v>
       </c>
       <c r="K11">
@@ -3108,10 +3321,10 @@
       <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="28" t="s">
         <v>101</v>
       </c>
       <c r="K13">
@@ -3139,10 +3352,10 @@
       <c r="D14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>99</v>
       </c>
       <c r="K14">
@@ -3170,10 +3383,10 @@
       <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>94</v>
       </c>
       <c r="K15">
@@ -3201,10 +3414,10 @@
       <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>100</v>
       </c>
       <c r="K16">
@@ -3235,7 +3448,7 @@
       <c r="F17" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="30" t="s">
         <v>104</v>
       </c>
       <c r="K17">
@@ -3263,10 +3476,10 @@
       <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="30" t="s">
         <v>103</v>
       </c>
       <c r="K18">
@@ -3287,7 +3500,7 @@
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3295,7 +3508,7 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>121</v>
       </c>
       <c r="H22" t="e">
@@ -3307,7 +3520,7 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3315,7 +3528,7 @@
       <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3323,7 +3536,7 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3331,7 +3544,7 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="31" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3339,7 +3552,7 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3347,7 +3560,7 @@
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3355,7 +3568,7 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="31" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3363,7 +3576,7 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="33" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3371,7 +3584,7 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3379,7 +3592,7 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3387,7 +3600,7 @@
       <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3395,7 +3608,7 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3403,7 +3616,7 @@
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3411,14 +3624,14 @@
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="32" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="F22:G36">
-    <sortCondition descending="1" sortBy="cellColor" ref="G22:G36" dxfId="6"/>
-    <sortCondition descending="1" sortBy="fontColor" ref="G22:G36" dxfId="5"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="G22:G36" dxfId="7"/>
+    <sortCondition descending="1" sortBy="fontColor" ref="G22:G36" dxfId="6"/>
     <sortCondition ref="F22:F36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3462,14 +3675,14 @@
       <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3540,17 +3753,17 @@
         <f>G5+H5+I5</f>
         <v>300</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="34">
         <f>RANK(J5, $J$5:$J$1004, 0)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -41521,4 +41734,1933 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="I3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0.25336453938210002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="29">
+        <v>5</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.79848336242530005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="29">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="I6" s="35">
+        <v>0.66977147532955295</v>
+      </c>
+      <c r="J6" s="36">
+        <f>AVERAGE(I4:I25)</f>
+        <v>0.49750264976667485</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="e">
+        <f>3/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.64685553145657004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.49278787124543999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="I9" s="35">
+        <v>0.94555887343593903</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0.45265253672259997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="29">
+        <v>8</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0.33786192367950002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
+        <v>12</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0.53498127767467996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="e">
+        <f ca="1">unique(1,2,3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0.41176624642592002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="29">
+        <v>4</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="I14" s="35">
+        <v>0.56821385725186802</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.45268924581139902</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="29">
+        <v>6</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="35">
+        <v>0.25369987481738998</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="35">
+        <v>0.27686929669754001</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="35">
+        <v>0.61813594284213003</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="35">
+        <v>0.55361342877761899</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="35">
+        <v>0.49264237834711</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="35">
+        <v>0.14212942264223999</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="35">
+        <v>0.77416453511469996</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="35">
+        <v>0.27381137525389998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>26</v>
+      </c>
+      <c r="P5">
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>33</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>33</v>
+      </c>
+      <c r="Q6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <v>26</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>21</v>
+      </c>
+      <c r="P9">
+        <v>22</v>
+      </c>
+      <c r="Q9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>31</v>
+      </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>22</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>32</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
+      <c r="Q12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M5:Q12">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C1" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O6" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>175</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>177</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="38">
+        <v>14</v>
+      </c>
+      <c r="E15" s="38">
+        <v>14</v>
+      </c>
+      <c r="F15" s="38">
+        <v>17</v>
+      </c>
+      <c r="G15" s="38">
+        <v>3</v>
+      </c>
+      <c r="H15" s="38">
+        <v>3</v>
+      </c>
+      <c r="I15" s="38">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="38">
+        <v>7</v>
+      </c>
+      <c r="E16" s="38">
+        <v>7</v>
+      </c>
+      <c r="F16" s="38">
+        <v>10</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="38">
+        <v>14</v>
+      </c>
+      <c r="E17" s="38">
+        <v>24</v>
+      </c>
+      <c r="F17" s="38">
+        <v>13</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C18" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="38">
+        <v>10</v>
+      </c>
+      <c r="E18" s="38">
+        <v>5</v>
+      </c>
+      <c r="F18" s="38">
+        <v>3</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C19" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38">
+        <v>4</v>
+      </c>
+      <c r="H19" s="38">
+        <v>4</v>
+      </c>
+      <c r="I19" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C20" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38">
+        <v>3</v>
+      </c>
+      <c r="H20" s="38">
+        <v>5</v>
+      </c>
+      <c r="I20" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C21" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38">
+        <v>5</v>
+      </c>
+      <c r="H21" s="38">
+        <v>2</v>
+      </c>
+      <c r="I21" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="s">
+        <v>193</v>
+      </c>
+      <c r="N28" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" t="s">
+        <v>195</v>
+      </c>
+      <c r="R28" t="s">
+        <v>191</v>
+      </c>
+      <c r="S28" t="s">
+        <v>192</v>
+      </c>
+      <c r="T28" t="s">
+        <v>193</v>
+      </c>
+      <c r="U28" t="s">
+        <v>194</v>
+      </c>
+      <c r="V28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>182</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>183</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>184</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>185</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>186</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>186</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>187</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>188</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>189</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>190</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Q40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="R41" t="s">
+        <v>191</v>
+      </c>
+      <c r="S41" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" t="s">
+        <v>193</v>
+      </c>
+      <c r="U41" t="s">
+        <v>194</v>
+      </c>
+      <c r="V41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C42" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="38">
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
+        <v>3</v>
+      </c>
+      <c r="F42" s="38">
+        <v>3</v>
+      </c>
+      <c r="G42" s="38">
+        <v>3</v>
+      </c>
+      <c r="H42" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>182</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C43" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="38">
+        <v>1</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1</v>
+      </c>
+      <c r="F43" s="38">
+        <v>3</v>
+      </c>
+      <c r="G43" s="38">
+        <v>2</v>
+      </c>
+      <c r="H43" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>183</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C44" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="38">
+        <v>1</v>
+      </c>
+      <c r="E44" s="38">
+        <v>3</v>
+      </c>
+      <c r="F44" s="39">
+        <v>4</v>
+      </c>
+      <c r="G44" s="38">
+        <v>2</v>
+      </c>
+      <c r="H44" s="38">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f>MAX(D42:H50)</f>
+        <v>4</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>184</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C45" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="38">
+        <v>2</v>
+      </c>
+      <c r="E45" s="38">
+        <v>2</v>
+      </c>
+      <c r="F45" s="38">
+        <v>2</v>
+      </c>
+      <c r="G45" s="39">
+        <v>4</v>
+      </c>
+      <c r="H45" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>185</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C46" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="38">
+        <v>3</v>
+      </c>
+      <c r="E46" s="38">
+        <v>2</v>
+      </c>
+      <c r="F46" s="38">
+        <v>2</v>
+      </c>
+      <c r="G46" s="38">
+        <v>2</v>
+      </c>
+      <c r="H46" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>186</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C47" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="38">
+        <v>2</v>
+      </c>
+      <c r="E47" s="38">
+        <v>2</v>
+      </c>
+      <c r="F47" s="39">
+        <v>4</v>
+      </c>
+      <c r="G47" s="38">
+        <v>3</v>
+      </c>
+      <c r="H47" s="39">
+        <v>4</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>187</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C48" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="38">
+        <v>3</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1</v>
+      </c>
+      <c r="F48" s="38">
+        <v>2</v>
+      </c>
+      <c r="G48" s="38">
+        <v>3</v>
+      </c>
+      <c r="H48" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>188</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C49" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="38">
+        <v>2</v>
+      </c>
+      <c r="E49" s="38">
+        <v>2</v>
+      </c>
+      <c r="F49" s="38">
+        <v>0</v>
+      </c>
+      <c r="G49" s="38">
+        <v>3</v>
+      </c>
+      <c r="H49" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>189</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C50" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="38">
+        <v>2</v>
+      </c>
+      <c r="E50" s="38">
+        <v>2</v>
+      </c>
+      <c r="F50" s="38">
+        <v>3</v>
+      </c>
+      <c r="G50" s="38">
+        <v>2</v>
+      </c>
+      <c r="H50" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>190</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1">
+    <dataRefs count="4">
+      <dataRef ref="C4:H13" sheet="Sheet13"/>
+      <dataRef ref="C4:H13" sheet="Sheet14"/>
+      <dataRef ref="C4:H13" sheet="Sheet15"/>
+      <dataRef ref="C4:H13" sheet="Sheet16"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>